--- a/整合結果/EPU匯出結果/2025-06-06/2025-06-06_自由時報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-06/2025-06-06_自由時報_EPU檢查結果.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$5:$A$6</f>
+              <f>'Sheet1'!$A$6:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$5:$B$6</f>
+              <f>'Sheet1'!$B$6:$B$7</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>4</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,40 +631,67 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>統計摘要</t>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-06-06_1030_自由時報_財經_每天都覺得好累？專家揭5大跡象：你正過著「B+人生」！.txt</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>經濟</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>✔ 符合 EPU</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
+          <t>統計摘要</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>✘ 不符合 EPU</t>
+          <t>✔ 符合 EPU</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>✘ 不符合 EPU</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>EPU 比例</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
